--- a/3tier.xlsx
+++ b/3tier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\주우스\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\주우스\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ED5C64-F1AF-4BA2-B165-8ACD24C6F92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D05BAC4-4D7C-4F39-B12E-4C60B8805A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Architecture" sheetId="1" r:id="rId1"/>
@@ -787,14 +787,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0.2G</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25G</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>host_module2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1189,6 +1181,14 @@
   </si>
   <si>
     <t>Business Software</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4G</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5G</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1794,8 +1794,8 @@
   </sheetPr>
   <dimension ref="A1:AN1062"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1840,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>107</v>
@@ -1956,7 +1956,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
@@ -2012,7 +2012,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2075,7 +2075,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:40" ht="15.75" customHeight="1">
@@ -2086,7 +2086,7 @@
         <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>108</v>
@@ -2100,7 +2100,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F10" s="31"/>
     </row>
@@ -2112,7 +2112,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F11" s="31"/>
     </row>
@@ -2124,7 +2124,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:40" ht="15.75" customHeight="1">
@@ -2135,7 +2135,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
@@ -2149,7 +2149,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -2163,7 +2163,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -2177,7 +2177,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -2191,7 +2191,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -2205,7 +2205,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -2219,7 +2219,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1">
@@ -2230,7 +2230,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1">
@@ -2241,7 +2241,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1">
@@ -2252,7 +2252,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1">
@@ -2263,7 +2263,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1">
@@ -2274,7 +2274,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1">
@@ -2285,7 +2285,7 @@
         <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1">
@@ -2296,7 +2296,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1">
@@ -2307,7 +2307,7 @@
         <v>63</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1">
@@ -2318,7 +2318,7 @@
         <v>64</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1">
@@ -2329,7 +2329,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1">
@@ -2340,7 +2340,7 @@
         <v>66</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1">
@@ -2351,7 +2351,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1">
@@ -2362,7 +2362,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1">
@@ -2373,7 +2373,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1">
@@ -2384,7 +2384,7 @@
         <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" customHeight="1">
@@ -2395,7 +2395,7 @@
         <v>71</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1">
@@ -2406,7 +2406,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1">
@@ -2417,7 +2417,7 @@
         <v>73</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1">
@@ -2428,7 +2428,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1">
@@ -2439,7 +2439,7 @@
         <v>75</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1">
@@ -2450,7 +2450,7 @@
         <v>76</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1">
@@ -2461,7 +2461,7 @@
         <v>77</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1">
@@ -2472,7 +2472,7 @@
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" customHeight="1">
@@ -2483,7 +2483,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1">
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1">
@@ -2505,7 +2505,7 @@
         <v>41</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" customHeight="1">
@@ -2516,7 +2516,7 @@
         <v>42</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" customHeight="1">
@@ -2527,7 +2527,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" customHeight="1">
@@ -2538,7 +2538,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="15.75" customHeight="1">
@@ -2549,7 +2549,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15.75" customHeight="1">
@@ -2560,7 +2560,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" customHeight="1">
@@ -2571,7 +2571,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" customHeight="1">
@@ -2582,7 +2582,7 @@
         <v>56</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" customHeight="1">
@@ -2593,7 +2593,7 @@
         <v>57</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" customHeight="1">
@@ -2604,7 +2604,7 @@
         <v>58</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15.75" customHeight="1">
@@ -2615,7 +2615,7 @@
         <v>59</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" customHeight="1">
@@ -2626,7 +2626,7 @@
         <v>60</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15.75" customHeight="1">
@@ -2637,7 +2637,7 @@
         <v>61</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" customHeight="1">
@@ -2648,7 +2648,7 @@
         <v>62</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" customHeight="1">
@@ -2659,7 +2659,7 @@
         <v>63</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" customHeight="1">
@@ -2670,7 +2670,7 @@
         <v>64</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" customHeight="1">
@@ -2681,7 +2681,7 @@
         <v>65</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" customHeight="1">
@@ -2692,7 +2692,7 @@
         <v>66</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="15.75" customHeight="1">
@@ -2703,7 +2703,7 @@
         <v>67</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" customHeight="1">
@@ -2714,7 +2714,7 @@
         <v>68</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
@@ -2725,7 +2725,7 @@
         <v>69</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
@@ -2736,7 +2736,7 @@
         <v>70</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
@@ -2747,7 +2747,7 @@
         <v>71</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
@@ -2758,7 +2758,7 @@
         <v>72</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
@@ -2769,7 +2769,7 @@
         <v>73</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1">
@@ -2780,7 +2780,7 @@
         <v>74</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1">
@@ -2791,7 +2791,7 @@
         <v>75</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1">
@@ -2802,7 +2802,7 @@
         <v>76</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1">
@@ -2813,7 +2813,7 @@
         <v>77</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1">
@@ -2825,7 +2825,7 @@
         <v>78</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1">
@@ -2836,7 +2836,7 @@
         <v>79</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1">
@@ -2844,10 +2844,10 @@
         <v>5</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1">
@@ -2855,10 +2855,10 @@
         <v>5</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1">
@@ -2866,10 +2866,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1">
@@ -2877,10 +2877,10 @@
         <v>8</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -2888,10 +2888,10 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1">
       <c r="B80" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>55</v>
@@ -2899,10 +2899,10 @@
     </row>
     <row r="81" spans="2:4" ht="15.75" customHeight="1">
       <c r="B81" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>55</v>
@@ -2910,46 +2910,46 @@
     </row>
     <row r="82" spans="2:4" ht="15.75" customHeight="1">
       <c r="B82" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="15.75" customHeight="1">
       <c r="B83" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="15.75" customHeight="1">
       <c r="B84" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="15.75" customHeight="1">
       <c r="B85" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="15.75" customHeight="1">
@@ -4193,8 +4193,8 @@
   </sheetPr>
   <dimension ref="B1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4236,11 +4236,11 @@
         <v>233360</v>
       </c>
       <c r="D3" s="4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E9" si="0">C3 / (C3+D3)</f>
-        <v>0.9996915589979094</v>
+        <v>0.99989716518698801</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -4258,11 +4258,11 @@
         <v>41280.840362202769</v>
       </c>
       <c r="D4" s="6">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>0.99825888622475834</v>
+        <v>0.99941895429713457</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -4280,11 +4280,11 @@
         <v>717739.67029953504</v>
       </c>
       <c r="D5" s="6">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>0.99989969513874033</v>
+        <v>0.99996656281030494</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -4302,11 +4302,11 @@
         <v>716275.00083246583</v>
       </c>
       <c r="D6" s="4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>0.99989949005172585</v>
+        <v>0.9999664944388138</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -4348,11 +4348,11 @@
         <v>700358421.31776893</v>
       </c>
       <c r="D8" s="4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -4370,11 +4370,11 @@
         <v>700358421.31776893</v>
       </c>
       <c r="D9" s="4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -5439,11 +5439,11 @@
       </c>
       <c r="D3" s="17">
         <f>Availability!D3</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E9" si="0">C3 / (C3+D3)</f>
-        <v>0.9996915589979094</v>
+        <v>0.99989716518698801</v>
       </c>
       <c r="F3" s="4">
         <f>Availability!F3</f>
@@ -5455,14 +5455,14 @@
       </c>
       <c r="H3" s="28">
         <f>1-(1-E3)^2</f>
-        <v>0.99999990486414825</v>
+        <v>0.99999998942500123</v>
       </c>
       <c r="I3" s="28">
         <v>1</v>
       </c>
       <c r="J3" s="28">
         <f>H3^I3</f>
-        <v>0.99999990486414825</v>
+        <v>0.99999998942500123</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -5475,11 +5475,11 @@
       </c>
       <c r="D4" s="17">
         <f>Availability!D4</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>0.99825888622475834</v>
+        <v>0.99941895429713457</v>
       </c>
       <c r="F4" s="4">
         <f>Availability!F4</f>
@@ -5491,14 +5491,14 @@
       </c>
       <c r="H4" s="28">
         <f t="shared" ref="H4:H9" si="1">1-(1-E4)^2</f>
-        <v>0.99999696852282172</v>
+        <v>0.99999966238589122</v>
       </c>
       <c r="I4" s="28">
         <v>2</v>
       </c>
       <c r="J4" s="28">
         <f t="shared" ref="J4:J9" si="2">H4^I4</f>
-        <v>0.9999939370548333</v>
+        <v>0.99999932477189646</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -5511,11 +5511,11 @@
       </c>
       <c r="D5" s="17">
         <f>Availability!D5</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>0.99989969513874033</v>
+        <v>0.99996656281030494</v>
       </c>
       <c r="F5" s="4">
         <f>Availability!F5</f>
@@ -5527,14 +5527,14 @@
       </c>
       <c r="H5" s="28">
         <f t="shared" si="1"/>
-        <v>0.9999999899389348</v>
+        <v>0.99999999888195434</v>
       </c>
       <c r="I5" s="28">
         <v>2</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" si="2"/>
-        <v>0.9999999798778697</v>
+        <v>0.99999999776390869</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -5547,11 +5547,11 @@
       </c>
       <c r="D6" s="17">
         <f>Availability!D6</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>0.99989949005172585</v>
+        <v>0.9999664944388138</v>
       </c>
       <c r="F6" s="4">
         <f>Availability!F6</f>
@@ -5563,14 +5563,14 @@
       </c>
       <c r="H6" s="28">
         <f t="shared" si="1"/>
-        <v>0.9999999898977503</v>
+        <v>0.99999999887737734</v>
       </c>
       <c r="I6" s="28">
         <v>2</v>
       </c>
       <c r="J6" s="28">
         <f t="shared" si="2"/>
-        <v>0.9999999797955007</v>
+        <v>0.99999999775475468</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -5619,11 +5619,11 @@
       </c>
       <c r="D8" s="17">
         <f>Availability!D8</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
       <c r="F8" s="4">
         <f>Availability!F8</f>
@@ -5634,14 +5634,14 @@
       </c>
       <c r="H8" s="28">
         <f>E8</f>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
       <c r="I8" s="28">
         <v>1</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" si="2"/>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -5654,11 +5654,11 @@
       </c>
       <c r="D9" s="17">
         <f>Availability!D9</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
       <c r="F9" s="4">
         <f>Availability!F9</f>
@@ -5670,14 +5670,14 @@
       </c>
       <c r="H9" s="28">
         <f t="shared" si="1"/>
-        <v>0.99999999999998945</v>
+        <v>0.99999999999999878</v>
       </c>
       <c r="I9" s="28">
         <v>2</v>
       </c>
       <c r="J9" s="28">
         <f t="shared" si="2"/>
-        <v>0.99999999999997891</v>
+        <v>0.99999999999999756</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="J10">
         <f>PRODUCT(J3:J7)</f>
-        <v>0.99999379391357346</v>
+        <v>0.99999930203592502</v>
       </c>
     </row>
   </sheetData>
@@ -5750,7 +5750,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="20">
         <f>1 /( 1/B6 + 1 / B7 * 4 + 1/B8 + 1/B15)</f>
@@ -5809,7 +5809,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="21">
         <f>E20 * H23/(1-H23)</f>
@@ -5855,10 +5855,10 @@
         <v>9247903</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="33">
         <f>1 /( 1/B6 * 2 + 1 / B7 * 4 + 1/B8 + 1/B15)</f>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B15" s="35">
         <v>43800</v>

--- a/3tier.xlsx
+++ b/3tier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\주우스\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sejun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D05BAC4-4D7C-4F39-B12E-4C60B8805A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2046AB3-924F-46B1-8BEA-92DFE7DEB15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Architecture" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="136">
   <si>
     <t>from</t>
   </si>
@@ -1184,12 +1184,60 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1.4G</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>12.5G</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6G</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd32</t>
+  </si>
+  <si>
+    <t>ssd33</t>
+  </si>
+  <si>
+    <t>ssd34</t>
+  </si>
+  <si>
+    <t>ssd35</t>
+  </si>
+  <si>
+    <t>ssd36</t>
+  </si>
+  <si>
+    <t>ssd37</t>
+  </si>
+  <si>
+    <t>ssd38</t>
+  </si>
+  <si>
+    <t>ssd39</t>
+  </si>
+  <si>
+    <t>ssd40</t>
+  </si>
+  <si>
+    <t>ssd41</t>
+  </si>
+  <si>
+    <t>ssd42</t>
+  </si>
+  <si>
+    <t>ssd43</t>
+  </si>
+  <si>
+    <t>ssd44</t>
+  </si>
+  <si>
+    <t>ssd45</t>
+  </si>
+  <si>
+    <t>ssd46</t>
+  </si>
+  <si>
+    <t>ssd47</t>
   </si>
 </sst>
 </file>
@@ -1792,25 +1840,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AN1062"/>
+  <dimension ref="A1:BD1062"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2:BD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="15.75" customHeight="1">
+    <row r="1" spans="2:56" ht="15.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1880,7 @@
       <c r="K1" s="37"/>
       <c r="L1" s="38"/>
     </row>
-    <row r="2" spans="2:40" ht="15.75" customHeight="1">
+    <row r="2" spans="2:56" ht="15.75" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>107</v>
@@ -1947,8 +1995,56 @@
       <c r="AN2" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="2:40" ht="15.75" customHeight="1">
+      <c r="AO2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="2:56" ht="15.75" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
@@ -2004,7 +2100,7 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
     </row>
-    <row r="4" spans="2:40" ht="15.75" customHeight="1">
+    <row r="4" spans="2:56" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2012,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
@@ -2032,7 +2128,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:40" ht="15.75" customHeight="1">
+    <row r="5" spans="2:56" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2040,12 +2136,12 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:40" ht="15.75" customHeight="1">
+    <row r="6" spans="2:56" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +2152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:40" ht="15.75" customHeight="1">
+    <row r="7" spans="2:56" ht="15.75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2067,7 +2163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:40" ht="15.75" customHeight="1">
+    <row r="8" spans="2:56" ht="15.75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2075,10 +2171,10 @@
         <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" ht="15.75" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:56" ht="15.75" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2086,13 +2182,13 @@
         <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="15.75" customHeight="1">
+    <row r="10" spans="2:56" ht="15.75" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -2100,11 +2196,11 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="2:40" ht="15.75" customHeight="1">
+    <row r="11" spans="2:56" ht="15.75" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -2112,11 +2208,11 @@
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="2:40" ht="15.75" customHeight="1">
+    <row r="12" spans="2:56" ht="15.75" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
@@ -2124,10 +2220,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="2:40" ht="15.75" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:56" ht="15.75" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
@@ -2135,13 +2231,13 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="2:40" ht="15.75" customHeight="1">
+    <row r="14" spans="2:56" ht="15.75" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>52</v>
       </c>
@@ -2149,13 +2245,13 @@
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="2:40" ht="15.75" customHeight="1">
+    <row r="15" spans="2:56" ht="15.75" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>52</v>
       </c>
@@ -2163,13 +2259,13 @@
         <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:40" ht="15.75" customHeight="1">
+    <row r="16" spans="2:56" ht="15.75" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
@@ -2177,7 +2273,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -2191,7 +2287,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -2205,7 +2301,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -2219,7 +2315,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1">
@@ -2230,7 +2326,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1">
@@ -2241,7 +2337,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1">
@@ -2252,7 +2348,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1">
@@ -2263,7 +2359,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1">
@@ -2274,7 +2370,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1">
@@ -2285,7 +2381,7 @@
         <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1">
@@ -2296,7 +2392,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1">
@@ -2307,7 +2403,7 @@
         <v>63</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1">
@@ -2318,7 +2414,7 @@
         <v>64</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1">
@@ -2329,7 +2425,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1">
@@ -2340,7 +2436,7 @@
         <v>66</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1">
@@ -2351,7 +2447,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1">
@@ -2362,7 +2458,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1">
@@ -2373,7 +2469,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1">
@@ -2384,7 +2480,7 @@
         <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" customHeight="1">
@@ -2395,7 +2491,7 @@
         <v>71</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1">
@@ -2406,7 +2502,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1">
@@ -2417,7 +2513,7 @@
         <v>73</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1">
@@ -2428,7 +2524,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1">
@@ -2439,7 +2535,7 @@
         <v>75</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1">
@@ -2450,7 +2546,7 @@
         <v>76</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1">
@@ -2461,7 +2557,7 @@
         <v>77</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1">
@@ -2472,10 +2568,10 @@
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="15.75" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="13.2">
       <c r="B43" s="3" t="s">
         <v>51</v>
       </c>
@@ -2483,205 +2579,205 @@
         <v>80</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="15.75" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" customHeight="1">
       <c r="B54" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15.75" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" customHeight="1">
       <c r="B56" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" customHeight="1">
       <c r="B59" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" customHeight="1">
       <c r="B60" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" customHeight="1">
@@ -2689,10 +2785,10 @@
         <v>53</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="15.75" customHeight="1">
@@ -2700,10 +2796,10 @@
         <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" customHeight="1">
@@ -2711,10 +2807,10 @@
         <v>53</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
@@ -2722,10 +2818,10 @@
         <v>53</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
@@ -2733,10 +2829,10 @@
         <v>53</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
@@ -2744,10 +2840,10 @@
         <v>53</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
@@ -2755,10 +2851,10 @@
         <v>53</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
@@ -2766,10 +2862,10 @@
         <v>53</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1">
@@ -2777,10 +2873,10 @@
         <v>53</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1">
@@ -2788,10 +2884,10 @@
         <v>53</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1">
@@ -2799,10 +2895,10 @@
         <v>53</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1">
@@ -2810,10 +2906,10 @@
         <v>53</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1">
@@ -2822,10 +2918,10 @@
         <v>53</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1">
@@ -2833,18 +2929,18 @@
         <v>53</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1">
       <c r="B76" s="3" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>119</v>
@@ -2852,10 +2948,10 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1">
       <c r="B77" s="3" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>119</v>
@@ -2863,10 +2959,10 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1">
       <c r="B78" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>119</v>
@@ -2874,10 +2970,10 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1">
       <c r="B79" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>119</v>
@@ -2888,32 +2984,32 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1">
       <c r="B80" s="3" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" customHeight="1">
       <c r="B81" s="3" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" customHeight="1">
       <c r="B82" s="3" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>119</v>
@@ -2921,10 +3017,10 @@
     </row>
     <row r="83" spans="2:4" ht="15.75" customHeight="1">
       <c r="B83" s="3" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>119</v>
@@ -2932,10 +3028,10 @@
     </row>
     <row r="84" spans="2:4" ht="15.75" customHeight="1">
       <c r="B84" s="3" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>119</v>
@@ -2943,174 +3039,366 @@
     </row>
     <row r="85" spans="2:4" ht="15.75" customHeight="1">
       <c r="B85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B104" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B107" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B112" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B113" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D113" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B114" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="115" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="116" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
+      <c r="B116" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="117" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="118" spans="2:4" ht="15.75" customHeight="1">
       <c r="B118" s="3"/>
@@ -4194,16 +4482,16 @@
   <dimension ref="B1:I1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4254,15 +4542,15 @@
         <v>20</v>
       </c>
       <c r="C4" s="15">
-        <f>etc!F6</f>
-        <v>41280.840362202769</v>
+        <f>C6</f>
+        <v>716275.00083246583</v>
       </c>
       <c r="D4" s="6">
         <v>24</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>0.99941895429713457</v>
+        <v>0.9999664944388138</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -5386,18 +5674,18 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -5471,7 +5759,7 @@
       </c>
       <c r="C4" s="17">
         <f>Availability!C4</f>
-        <v>41280.840362202769</v>
+        <v>716275.00083246583</v>
       </c>
       <c r="D4" s="17">
         <f>Availability!D4</f>
@@ -5479,7 +5767,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>0.99941895429713457</v>
+        <v>0.9999664944388138</v>
       </c>
       <c r="F4" s="4">
         <f>Availability!F4</f>
@@ -5491,14 +5779,14 @@
       </c>
       <c r="H4" s="28">
         <f t="shared" ref="H4:H9" si="1">1-(1-E4)^2</f>
-        <v>0.99999966238589122</v>
+        <v>0.99999999887737734</v>
       </c>
       <c r="I4" s="28">
         <v>2</v>
       </c>
       <c r="J4" s="28">
         <f t="shared" ref="J4:J9" si="2">H4^I4</f>
-        <v>0.99999932477189646</v>
+        <v>0.99999999775475468</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -5686,7 +5974,7 @@
       </c>
       <c r="J10">
         <f>PRODUCT(J3:J7)</f>
-        <v>0.99999930203592502</v>
+        <v>0.99999997501876781</v>
       </c>
     </row>
   </sheetData>
@@ -5702,21 +5990,22 @@
   </sheetPr>
   <dimension ref="A4:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" ht="14.25">
+    <row r="4" spans="1:11" ht="13.8">
       <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
@@ -5739,7 +6028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
@@ -5767,7 +6056,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="15.6">
       <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
@@ -5798,7 +6087,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
@@ -5829,7 +6118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="15.6">
       <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
@@ -5847,7 +6136,7 @@
         <v>716275.00083246583</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="15.6">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
@@ -5865,7 +6154,7 @@
         <v>41275.985925206274</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25">
+    <row r="11" spans="1:11" ht="13.8">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
@@ -5873,7 +6162,7 @@
         <v>13764075</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25">
+    <row r="12" spans="1:11" ht="13.8">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
@@ -5890,7 +6179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25">
+    <row r="13" spans="1:11" ht="13.8">
       <c r="A13" s="9" t="s">
         <v>38</v>
       </c>
@@ -5916,7 +6205,7 @@
         <v>0.99999671795444112</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25">
+    <row r="14" spans="1:11" ht="13.8">
       <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
